--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1608416003758718</v>
+        <v>-0.3989960852331779</v>
       </c>
       <c r="C2">
-        <v>0.8594908078538727</v>
+        <v>1.622347057549135</v>
       </c>
       <c r="D2">
-        <v>1.64061426565291</v>
+        <v>3.410040606493075</v>
       </c>
       <c r="E2">
-        <v>1.280864655478053</v>
+        <v>1.846629526053636</v>
       </c>
       <c r="F2">
-        <v>1.318694559414439</v>
+        <v>1.871071232177386</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05080766432823666</v>
+        <v>-0.07368367304384635</v>
       </c>
       <c r="C3">
-        <v>0.8009667910890287</v>
+        <v>2.01870334081424</v>
       </c>
       <c r="D3">
-        <v>1.083142076586474</v>
+        <v>6.614665517794586</v>
       </c>
       <c r="E3">
-        <v>1.040741118908288</v>
+        <v>2.571899204439121</v>
       </c>
       <c r="F3">
-        <v>1.081946107399986</v>
+        <v>2.675818738311348</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05354799877553759</v>
+        <v>-0.3412105586050318</v>
       </c>
       <c r="C4">
-        <v>1.000578692683312</v>
+        <v>1.726870111009629</v>
       </c>
       <c r="D4">
-        <v>1.618272605442017</v>
+        <v>4.898523348216152</v>
       </c>
       <c r="E4">
-        <v>1.272113440476917</v>
+        <v>2.213260795346123</v>
       </c>
       <c r="F4">
-        <v>1.327501501701935</v>
+        <v>2.284039174058081</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0459864616832071</v>
+        <v>-0.4693883225059389</v>
       </c>
       <c r="C5">
-        <v>0.7358968996768105</v>
+        <v>2.197338286322757</v>
       </c>
       <c r="D5">
-        <v>0.7047535131209822</v>
+        <v>7.681313688700947</v>
       </c>
       <c r="E5">
-        <v>0.8394959875550223</v>
+        <v>2.771518300264486</v>
       </c>
       <c r="F5">
-        <v>0.8791488123799778</v>
+        <v>2.864801410313742</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1791212689832662</v>
+        <v>-0.7369237006858437</v>
       </c>
       <c r="C6">
-        <v>1.046431744547104</v>
+        <v>1.317817770111458</v>
       </c>
       <c r="D6">
-        <v>1.85744929065894</v>
+        <v>2.080685236058409</v>
       </c>
       <c r="E6">
-        <v>1.36288271346398</v>
+        <v>1.442458053483154</v>
       </c>
       <c r="F6">
-        <v>1.424142963195278</v>
+        <v>1.30708696277294</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4468736535468736</v>
+        <v>-0.2355834118156171</v>
       </c>
       <c r="C7">
-        <v>1.113351290621645</v>
+        <v>1.992865734783982</v>
       </c>
       <c r="D7">
-        <v>2.250650180986571</v>
+        <v>4.408914335405655</v>
       </c>
       <c r="E7">
-        <v>1.500216711340922</v>
+        <v>2.099741492518937</v>
       </c>
       <c r="F7">
-        <v>1.546861275360834</v>
+        <v>2.213050302279264</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.850104777447104</v>
+        <v>0.04677381843788716</v>
       </c>
       <c r="C8">
-        <v>1.39072502096516</v>
+        <v>1.625585584899291</v>
       </c>
       <c r="D8">
-        <v>3.326833707324537</v>
+        <v>3.112956264121649</v>
       </c>
       <c r="E8">
-        <v>1.823960993915313</v>
+        <v>1.764357181559802</v>
       </c>
       <c r="F8">
-        <v>1.863386012858008</v>
+        <v>1.932077164306971</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1367249067911729</v>
+        <v>0.8102998313761515</v>
       </c>
       <c r="C9">
-        <v>0.1367249067911729</v>
+        <v>0.9132997309681818</v>
       </c>
       <c r="D9">
-        <v>0.01869370013705493</v>
+        <v>1.270800624281741</v>
       </c>
       <c r="E9">
-        <v>0.1367249067911729</v>
+        <v>1.127297930576359</v>
+      </c>
+      <c r="F9">
+        <v>0.9598553074970639</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.1034734828819666</v>
+      </c>
+      <c r="C10">
+        <v>0.1034734828819666</v>
+      </c>
+      <c r="D10">
+        <v>0.01070676165972463</v>
+      </c>
+      <c r="E10">
+        <v>0.1034734828819666</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.3989960852331779</v>
+        <v>0.1608416003758718</v>
       </c>
       <c r="C2">
-        <v>1.622347057549135</v>
+        <v>0.8594908078538727</v>
       </c>
       <c r="D2">
-        <v>3.410040606493075</v>
+        <v>1.64061426565291</v>
       </c>
       <c r="E2">
-        <v>1.846629526053636</v>
+        <v>1.280864655478053</v>
       </c>
       <c r="F2">
-        <v>1.871071232177386</v>
+        <v>1.318694559414439</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.07368367304384635</v>
+        <v>0.05080766432823666</v>
       </c>
       <c r="C3">
-        <v>2.01870334081424</v>
+        <v>0.8009667910890287</v>
       </c>
       <c r="D3">
-        <v>6.614665517794586</v>
+        <v>1.083142076586474</v>
       </c>
       <c r="E3">
-        <v>2.571899204439121</v>
+        <v>1.040741118908288</v>
       </c>
       <c r="F3">
-        <v>2.675818738311348</v>
+        <v>1.081946107399986</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.3412105586050318</v>
+        <v>0.05354799877553759</v>
       </c>
       <c r="C4">
-        <v>1.726870111009629</v>
+        <v>1.000578692683312</v>
       </c>
       <c r="D4">
-        <v>4.898523348216152</v>
+        <v>1.618272605442017</v>
       </c>
       <c r="E4">
-        <v>2.213260795346123</v>
+        <v>1.272113440476917</v>
       </c>
       <c r="F4">
-        <v>2.284039174058081</v>
+        <v>1.327501501701935</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.4693883225059389</v>
+        <v>0.0459864616832071</v>
       </c>
       <c r="C5">
-        <v>2.197338286322757</v>
+        <v>0.7358968996768105</v>
       </c>
       <c r="D5">
-        <v>7.681313688700947</v>
+        <v>0.7047535131209822</v>
       </c>
       <c r="E5">
-        <v>2.771518300264486</v>
+        <v>0.8394959875550223</v>
       </c>
       <c r="F5">
-        <v>2.864801410313742</v>
+        <v>0.8791488123799778</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.7369237006858437</v>
+        <v>0.1791212689832662</v>
       </c>
       <c r="C6">
-        <v>1.317817770111458</v>
+        <v>1.046431744547104</v>
       </c>
       <c r="D6">
-        <v>2.080685236058409</v>
+        <v>1.85744929065894</v>
       </c>
       <c r="E6">
-        <v>1.442458053483154</v>
+        <v>1.36288271346398</v>
       </c>
       <c r="F6">
-        <v>1.30708696277294</v>
+        <v>1.424142963195278</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2355834118156171</v>
+        <v>0.2249165586779437</v>
       </c>
       <c r="C7">
-        <v>1.992865734783982</v>
+        <v>0.9885917312309039</v>
       </c>
       <c r="D7">
-        <v>4.408914335405655</v>
+        <v>1.868591037025346</v>
       </c>
       <c r="E7">
-        <v>2.099741492518937</v>
+        <v>1.366964168157069</v>
       </c>
       <c r="F7">
-        <v>2.213050302279264</v>
+        <v>1.430123779954045</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04677381843788716</v>
+        <v>0.5374424523978547</v>
       </c>
       <c r="C8">
-        <v>1.625585584899291</v>
+        <v>1.313921765979487</v>
       </c>
       <c r="D8">
-        <v>3.112956264121649</v>
+        <v>2.669240729549001</v>
       </c>
       <c r="E8">
-        <v>1.764357181559802</v>
+        <v>1.633781114332333</v>
       </c>
       <c r="F8">
-        <v>1.932077164306971</v>
+        <v>1.690111122941772</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.8102998313761515</v>
+        <v>-0.2811530848179681</v>
       </c>
       <c r="C9">
-        <v>0.9132997309681818</v>
+        <v>0.5494525610246418</v>
       </c>
       <c r="D9">
-        <v>1.270800624281741</v>
+        <v>0.4703157481287797</v>
       </c>
       <c r="E9">
-        <v>1.127297930576359</v>
+        <v>0.685795704367401</v>
       </c>
       <c r="F9">
-        <v>0.9598553074970639</v>
+        <v>0.7660959708412387</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1034734828819666</v>
+        <v>0.1212484254788393</v>
       </c>
       <c r="C10">
-        <v>0.1034734828819666</v>
+        <v>0.1212484254788393</v>
       </c>
       <c r="D10">
-        <v>0.01070676165972463</v>
+        <v>0.01470118068109764</v>
       </c>
       <c r="E10">
-        <v>0.1034734828819666</v>
+        <v>0.1212484254788393</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1608416003758718</v>
+        <v>0.08955173966697957</v>
       </c>
       <c r="C2">
-        <v>0.8594908078538727</v>
+        <v>2.273904322189158</v>
       </c>
       <c r="D2">
-        <v>1.64061426565291</v>
+        <v>8.17078559450975</v>
       </c>
       <c r="E2">
-        <v>1.280864655478053</v>
+        <v>2.858458604652121</v>
       </c>
       <c r="F2">
-        <v>1.318694559414439</v>
+        <v>2.885484604367352</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05080766432823666</v>
+        <v>0.4463754146773374</v>
       </c>
       <c r="C3">
-        <v>0.8009667910890287</v>
+        <v>1.740189769409006</v>
       </c>
       <c r="D3">
-        <v>1.083142076586474</v>
+        <v>5.865742303203072</v>
       </c>
       <c r="E3">
-        <v>1.040741118908288</v>
+        <v>2.421929458758671</v>
       </c>
       <c r="F3">
-        <v>1.081946107399986</v>
+        <v>2.404606822707389</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05354799877553759</v>
+        <v>0.2019302632364671</v>
       </c>
       <c r="C4">
-        <v>1.000578692683312</v>
+        <v>1.806917761578944</v>
       </c>
       <c r="D4">
-        <v>1.618272605442017</v>
+        <v>8.086275077752271</v>
       </c>
       <c r="E4">
-        <v>1.272113440476917</v>
+        <v>2.843637648813975</v>
       </c>
       <c r="F4">
-        <v>1.327501501701935</v>
+        <v>2.865853069188615</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0459864616832071</v>
+        <v>0.4252209318853117</v>
       </c>
       <c r="C5">
-        <v>0.7358968996768105</v>
+        <v>2.131188842423581</v>
       </c>
       <c r="D5">
-        <v>0.7047535131209822</v>
+        <v>8.399318469451574</v>
       </c>
       <c r="E5">
-        <v>0.8394959875550223</v>
+        <v>2.89815777166316</v>
       </c>
       <c r="F5">
-        <v>0.8791488123799778</v>
+        <v>2.897130899773421</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1791212689832662</v>
+        <v>0.2652521615722713</v>
       </c>
       <c r="C6">
-        <v>1.046431744547104</v>
+        <v>2.002825916836749</v>
       </c>
       <c r="D6">
-        <v>1.85744929065894</v>
+        <v>5.954243375372193</v>
       </c>
       <c r="E6">
-        <v>1.36288271346398</v>
+        <v>2.440131835654007</v>
       </c>
       <c r="F6">
-        <v>1.424142963195278</v>
+        <v>2.45189624624986</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2249165586779437</v>
+        <v>0.4999690279088892</v>
       </c>
       <c r="C7">
-        <v>0.9885917312309039</v>
+        <v>2.08768557276191</v>
       </c>
       <c r="D7">
-        <v>1.868591037025346</v>
+        <v>7.593124772848787</v>
       </c>
       <c r="E7">
-        <v>1.366964168157069</v>
+        <v>2.755562514777842</v>
       </c>
       <c r="F7">
-        <v>1.430123779954045</v>
+        <v>2.739769512702802</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.5374424523978547</v>
+        <v>0.2296267861977144</v>
       </c>
       <c r="C8">
-        <v>1.313921765979487</v>
+        <v>2.088810190185991</v>
       </c>
       <c r="D8">
-        <v>2.669240729549001</v>
+        <v>8.927205418845755</v>
       </c>
       <c r="E8">
-        <v>1.633781114332333</v>
+        <v>2.987842937445969</v>
       </c>
       <c r="F8">
-        <v>1.690111122941772</v>
+        <v>3.012668188838675</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.2811530848179681</v>
+        <v>0.6094138230921922</v>
       </c>
       <c r="C9">
-        <v>0.5494525610246418</v>
+        <v>1.868813072520197</v>
       </c>
       <c r="D9">
-        <v>0.4703157481287797</v>
+        <v>6.152424372330578</v>
       </c>
       <c r="E9">
-        <v>0.685795704367401</v>
+        <v>2.480408106004046</v>
       </c>
       <c r="F9">
-        <v>0.7660959708412387</v>
+        <v>2.432176378436287</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1212484254788393</v>
+        <v>0.346472456232026</v>
       </c>
       <c r="C10">
-        <v>0.1212484254788393</v>
+        <v>2.156096895354216</v>
       </c>
       <c r="D10">
-        <v>0.01470118068109764</v>
+        <v>7.27551841264675</v>
       </c>
       <c r="E10">
-        <v>0.1212484254788393</v>
+        <v>2.697316891402779</v>
+      </c>
+      <c r="F10">
+        <v>2.706629584565636</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.7689217661775961</v>
+      </c>
+      <c r="C11">
+        <v>2.340507979975441</v>
+      </c>
+      <c r="D11">
+        <v>8.372201904652238</v>
+      </c>
+      <c r="E11">
+        <v>2.893475748067061</v>
+      </c>
+      <c r="F11">
+        <v>2.823250035713138</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08955173966697957</v>
+        <v>0.4912602871908769</v>
       </c>
       <c r="C2">
-        <v>2.273904322189158</v>
+        <v>2.174891296644351</v>
       </c>
       <c r="D2">
-        <v>8.17078559450975</v>
+        <v>11.4276319550312</v>
       </c>
       <c r="E2">
-        <v>2.858458604652121</v>
+        <v>3.380478066047937</v>
       </c>
       <c r="F2">
-        <v>2.885484604367352</v>
+        <v>3.385133934666772</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4463754146773374</v>
+        <v>0.09227350360579856</v>
       </c>
       <c r="C3">
-        <v>1.740189769409006</v>
+        <v>2.692498561492474</v>
       </c>
       <c r="D3">
-        <v>5.865742303203072</v>
+        <v>10.01612202341713</v>
       </c>
       <c r="E3">
-        <v>2.421929458758671</v>
+        <v>3.164825749297602</v>
       </c>
       <c r="F3">
-        <v>2.404606822707389</v>
+        <v>3.202779701220204</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2019302632364671</v>
+        <v>0.5507705051130964</v>
       </c>
       <c r="C4">
-        <v>1.806917761578944</v>
+        <v>2.023147763338789</v>
       </c>
       <c r="D4">
-        <v>8.086275077752271</v>
+        <v>7.167790521971241</v>
       </c>
       <c r="E4">
-        <v>2.843637648813975</v>
+        <v>2.677272963664938</v>
       </c>
       <c r="F4">
-        <v>2.865853069188615</v>
+        <v>2.653385331149181</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4252209318853117</v>
+        <v>0.2467834876975515</v>
       </c>
       <c r="C5">
-        <v>2.131188842423581</v>
+        <v>2.086588795306851</v>
       </c>
       <c r="D5">
-        <v>8.399318469451574</v>
+        <v>9.964469520185652</v>
       </c>
       <c r="E5">
-        <v>2.89815777166316</v>
+        <v>3.156654799021529</v>
       </c>
       <c r="F5">
-        <v>2.897130899773421</v>
+        <v>3.188132309977417</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2652521615722713</v>
+        <v>0.5624371311069387</v>
       </c>
       <c r="C6">
-        <v>2.002825916836749</v>
+        <v>2.517633049209763</v>
       </c>
       <c r="D6">
-        <v>5.954243375372193</v>
+        <v>10.46235797449542</v>
       </c>
       <c r="E6">
-        <v>2.440131835654007</v>
+        <v>3.234556843602447</v>
       </c>
       <c r="F6">
-        <v>2.45189624624986</v>
+        <v>3.228039539870573</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4999690279088892</v>
+        <v>0.2885307811909213</v>
       </c>
       <c r="C7">
-        <v>2.08768557276191</v>
+        <v>2.261310828266383</v>
       </c>
       <c r="D7">
-        <v>7.593124772848787</v>
+        <v>7.061485019889288</v>
       </c>
       <c r="E7">
-        <v>2.755562514777842</v>
+        <v>2.657345483727942</v>
       </c>
       <c r="F7">
-        <v>2.739769512702802</v>
+        <v>2.678072976887184</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2296267861977144</v>
+        <v>0.543176441055371</v>
       </c>
       <c r="C8">
-        <v>2.088810190185991</v>
+        <v>2.381006566340435</v>
       </c>
       <c r="D8">
-        <v>8.927205418845755</v>
+        <v>9.179169249568099</v>
       </c>
       <c r="E8">
-        <v>2.987842937445969</v>
+        <v>3.029714384157045</v>
       </c>
       <c r="F8">
-        <v>3.012668188838675</v>
+        <v>3.022906027196908</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.6094138230921922</v>
+        <v>0.1607468961940973</v>
       </c>
       <c r="C9">
-        <v>1.868813072520197</v>
+        <v>2.287366328590652</v>
       </c>
       <c r="D9">
-        <v>6.152424372330578</v>
+        <v>10.73307153727547</v>
       </c>
       <c r="E9">
-        <v>2.480408106004046</v>
+        <v>3.276136678662151</v>
       </c>
       <c r="F9">
-        <v>2.432176378436287</v>
+        <v>3.319962433532947</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.346472456232026</v>
+        <v>0.5939398229636811</v>
       </c>
       <c r="C10">
-        <v>2.156096895354216</v>
+        <v>2.070565034018146</v>
       </c>
       <c r="D10">
-        <v>7.27551841264675</v>
+        <v>7.383494754115199</v>
       </c>
       <c r="E10">
-        <v>2.697316891402779</v>
+        <v>2.717258683694874</v>
       </c>
       <c r="F10">
-        <v>2.706629584565636</v>
+        <v>2.691427627180946</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.7689217661775961</v>
+        <v>0.3228496717043242</v>
       </c>
       <c r="C11">
-        <v>2.340507979975441</v>
+        <v>2.395276021476864</v>
       </c>
       <c r="D11">
-        <v>8.372201904652238</v>
+        <v>8.574011187212726</v>
       </c>
       <c r="E11">
-        <v>2.893475748067061</v>
+        <v>2.928141251239893</v>
       </c>
       <c r="F11">
-        <v>2.823250035713138</v>
+        <v>2.955411964361279</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.4912602871908769</v>
+        <v>0.1071702803538169</v>
       </c>
       <c r="C2">
-        <v>2.174891296644351</v>
+        <v>1.517319008141423</v>
       </c>
       <c r="D2">
-        <v>11.4276319550312</v>
+        <v>4.284229419082147</v>
       </c>
       <c r="E2">
-        <v>3.380478066047937</v>
+        <v>2.069838017595132</v>
       </c>
       <c r="F2">
-        <v>3.385133934666772</v>
+        <v>2.092117878410876</v>
       </c>
       <c r="G2">
         <v>42</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.09227350360579856</v>
+        <v>0.07812963187187438</v>
       </c>
       <c r="C3">
-        <v>2.692498561492474</v>
+        <v>1.562882066891901</v>
       </c>
       <c r="D3">
-        <v>10.01612202341713</v>
+        <v>4.499674695932493</v>
       </c>
       <c r="E3">
-        <v>3.164825749297602</v>
+        <v>2.121243667269862</v>
       </c>
       <c r="F3">
-        <v>3.202779701220204</v>
+        <v>2.146138326848938</v>
       </c>
       <c r="G3">
         <v>41</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5507705051130964</v>
+        <v>0.1021687585061433</v>
       </c>
       <c r="C4">
-        <v>2.023147763338789</v>
+        <v>1.545248763219515</v>
       </c>
       <c r="D4">
-        <v>7.167790521971241</v>
+        <v>4.444713832803835</v>
       </c>
       <c r="E4">
-        <v>2.677272963664938</v>
+        <v>2.108248996870112</v>
       </c>
       <c r="F4">
-        <v>2.653385331149181</v>
+        <v>2.132598121129548</v>
       </c>
       <c r="G4">
         <v>40</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2467834876975515</v>
+        <v>0.1395551715400823</v>
       </c>
       <c r="C5">
-        <v>2.086588795306851</v>
+        <v>1.469169768481249</v>
       </c>
       <c r="D5">
-        <v>9.964469520185652</v>
+        <v>3.580895864778363</v>
       </c>
       <c r="E5">
-        <v>3.156654799021529</v>
+        <v>1.892325517657668</v>
       </c>
       <c r="F5">
-        <v>3.188132309977417</v>
+        <v>1.911842515371497</v>
       </c>
       <c r="G5">
         <v>39</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5624371311069387</v>
+        <v>0.1956097183245788</v>
       </c>
       <c r="C6">
-        <v>2.517633049209763</v>
+        <v>1.461836765371064</v>
       </c>
       <c r="D6">
-        <v>10.46235797449542</v>
+        <v>3.615952776792586</v>
       </c>
       <c r="E6">
-        <v>3.234556843602447</v>
+        <v>1.901565874954793</v>
       </c>
       <c r="F6">
-        <v>3.228039539870573</v>
+        <v>1.916868260680817</v>
       </c>
       <c r="G6">
         <v>38</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2885307811909213</v>
+        <v>0.1728577426462973</v>
       </c>
       <c r="C7">
-        <v>2.261310828266383</v>
+        <v>1.478476565263439</v>
       </c>
       <c r="D7">
-        <v>7.061485019889288</v>
+        <v>3.795830923667879</v>
       </c>
       <c r="E7">
-        <v>2.657345483727942</v>
+        <v>1.948289229983033</v>
       </c>
       <c r="F7">
-        <v>2.678072976887184</v>
+        <v>1.967374107263981</v>
       </c>
       <c r="G7">
         <v>37</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.543176441055371</v>
+        <v>0.1778149437228482</v>
       </c>
       <c r="C8">
-        <v>2.381006566340435</v>
+        <v>1.538792043084141</v>
       </c>
       <c r="D8">
-        <v>9.179169249568099</v>
+        <v>4.010211486527127</v>
       </c>
       <c r="E8">
-        <v>3.029714384157045</v>
+        <v>2.00255124441976</v>
       </c>
       <c r="F8">
-        <v>3.022906027196908</v>
+        <v>2.022935349319151</v>
       </c>
       <c r="G8">
         <v>36</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1607468961940973</v>
+        <v>0.1798597659105353</v>
       </c>
       <c r="C9">
-        <v>2.287366328590652</v>
+        <v>1.657056887155509</v>
       </c>
       <c r="D9">
-        <v>10.73307153727547</v>
+        <v>4.855272451113169</v>
       </c>
       <c r="E9">
-        <v>3.276136678662151</v>
+        <v>2.203468277764209</v>
       </c>
       <c r="F9">
-        <v>3.319962433532947</v>
+        <v>2.228177189927124</v>
       </c>
       <c r="G9">
         <v>35</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.5939398229636811</v>
+        <v>0.1775695429062709</v>
       </c>
       <c r="C10">
-        <v>2.070565034018146</v>
+        <v>1.650531737543476</v>
       </c>
       <c r="D10">
-        <v>7.383494754115199</v>
+        <v>4.68003261348437</v>
       </c>
       <c r="E10">
-        <v>2.717258683694874</v>
+        <v>2.163338303059503</v>
       </c>
       <c r="F10">
-        <v>2.691427627180946</v>
+        <v>2.188461870335852</v>
       </c>
       <c r="G10">
         <v>34</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3228496717043242</v>
+        <v>0.3202305741592543</v>
       </c>
       <c r="C11">
-        <v>2.395276021476864</v>
+        <v>1.510402810661228</v>
       </c>
       <c r="D11">
-        <v>8.574011187212726</v>
+        <v>4.018691835624606</v>
       </c>
       <c r="E11">
-        <v>2.928141251239893</v>
+        <v>2.004667512487945</v>
       </c>
       <c r="F11">
-        <v>2.955411964361279</v>
+        <v>2.009607852720757</v>
       </c>
       <c r="G11">
         <v>33</v>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1071702803538169</v>
+        <v>0.3624364103015721</v>
       </c>
       <c r="C2">
-        <v>1.517319008141423</v>
+        <v>2.902560095337955</v>
       </c>
       <c r="D2">
-        <v>4.284229419082147</v>
+        <v>14.15319625081184</v>
       </c>
       <c r="E2">
-        <v>2.069838017595132</v>
+        <v>3.762073397850159</v>
       </c>
       <c r="F2">
-        <v>2.092117878410876</v>
+        <v>3.78183458407233</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.07812963187187438</v>
+        <v>0.03493740399305523</v>
       </c>
       <c r="C3">
-        <v>1.562882066891901</v>
+        <v>3.008365163207992</v>
       </c>
       <c r="D3">
-        <v>4.499674695932493</v>
+        <v>12.2517222994939</v>
       </c>
       <c r="E3">
-        <v>2.121243667269862</v>
+        <v>3.500246034137301</v>
       </c>
       <c r="F3">
-        <v>2.146138326848938</v>
+        <v>3.535606300991146</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1021687585061433</v>
+        <v>0.376526435448383</v>
       </c>
       <c r="C4">
-        <v>1.545248763219515</v>
+        <v>2.512159032405139</v>
       </c>
       <c r="D4">
-        <v>4.444713832803835</v>
+        <v>10.14738472548122</v>
       </c>
       <c r="E4">
-        <v>2.108248996870112</v>
+        <v>3.185495993637603</v>
       </c>
       <c r="F4">
-        <v>2.132598121129548</v>
+        <v>3.195944747761078</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1395551715400823</v>
+        <v>0.128062596573612</v>
       </c>
       <c r="C5">
-        <v>1.469169768481249</v>
+        <v>2.051014053753879</v>
       </c>
       <c r="D5">
-        <v>3.580895864778363</v>
+        <v>8.415776543719975</v>
       </c>
       <c r="E5">
-        <v>1.892325517657668</v>
+        <v>2.900995784850432</v>
       </c>
       <c r="F5">
-        <v>1.911842515371497</v>
+        <v>2.92883708213644</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1956097183245788</v>
+        <v>0.3895087488094023</v>
       </c>
       <c r="C6">
-        <v>1.461836765371064</v>
+        <v>2.65705602853736</v>
       </c>
       <c r="D6">
-        <v>3.615952776792586</v>
+        <v>11.08899265343494</v>
       </c>
       <c r="E6">
-        <v>1.901565874954793</v>
+        <v>3.330013911898108</v>
       </c>
       <c r="F6">
-        <v>1.916868260680817</v>
+        <v>3.342909279152719</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1728577426462973</v>
+        <v>0.1522837063575818</v>
       </c>
       <c r="C7">
-        <v>1.478476565263439</v>
+        <v>2.670556882397438</v>
       </c>
       <c r="D7">
-        <v>3.795830923667879</v>
+        <v>10.36728199909625</v>
       </c>
       <c r="E7">
-        <v>1.948289229983033</v>
+        <v>3.219826392695148</v>
       </c>
       <c r="F7">
-        <v>1.967374107263981</v>
+        <v>3.251762656728451</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1778149437228482</v>
+        <v>0.3987337555141685</v>
       </c>
       <c r="C8">
-        <v>1.538792043084141</v>
+        <v>2.763470879128723</v>
       </c>
       <c r="D8">
-        <v>4.010211486527127</v>
+        <v>12.14087511611534</v>
       </c>
       <c r="E8">
-        <v>2.00255124441976</v>
+        <v>3.48437585746936</v>
       </c>
       <c r="F8">
-        <v>2.022935349319151</v>
+        <v>3.500600250070111</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1798597659105353</v>
+        <v>0.1063170287658169</v>
       </c>
       <c r="C9">
-        <v>1.657056887155509</v>
+        <v>2.290045569855232</v>
       </c>
       <c r="D9">
-        <v>4.855272451113169</v>
+        <v>9.722226614463244</v>
       </c>
       <c r="E9">
-        <v>2.203468277764209</v>
+        <v>3.118048526637013</v>
       </c>
       <c r="F9">
-        <v>2.228177189927124</v>
+        <v>3.152262477892468</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1775695429062709</v>
+        <v>0.458157375663734</v>
       </c>
       <c r="C10">
-        <v>1.650531737543476</v>
+        <v>2.282092575471136</v>
       </c>
       <c r="D10">
-        <v>4.68003261348437</v>
+        <v>8.777379630194348</v>
       </c>
       <c r="E10">
-        <v>2.163338303059503</v>
+        <v>2.962664279022237</v>
       </c>
       <c r="F10">
-        <v>2.188461870335852</v>
+        <v>2.961664880566207</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3202305741592543</v>
+        <v>0.06186012078826768</v>
       </c>
       <c r="C11">
-        <v>1.510402810661228</v>
+        <v>2.779572087388781</v>
       </c>
       <c r="D11">
-        <v>4.018691835624606</v>
+        <v>10.64187340981079</v>
       </c>
       <c r="E11">
-        <v>2.004667512487945</v>
+        <v>3.262188438734156</v>
       </c>
       <c r="F11">
-        <v>2.009607852720757</v>
+        <v>3.301137878033202</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1522837063575818</v>
+        <v>0.1643430888929492</v>
       </c>
       <c r="C7">
-        <v>2.670556882397438</v>
+        <v>2.713245774742223</v>
       </c>
       <c r="D7">
-        <v>10.36728199909625</v>
+        <v>10.87156620932192</v>
       </c>
       <c r="E7">
-        <v>3.219826392695148</v>
+        <v>3.297205818465374</v>
       </c>
       <c r="F7">
-        <v>3.251762656728451</v>
+        <v>3.337312348085441</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3987337555141685</v>
+        <v>0.3953194985244485</v>
       </c>
       <c r="C8">
-        <v>2.763470879128723</v>
+        <v>2.739053368442637</v>
       </c>
       <c r="D8">
-        <v>12.14087511611534</v>
+        <v>12.07707068967368</v>
       </c>
       <c r="E8">
-        <v>3.48437585746936</v>
+        <v>3.475208006677252</v>
       </c>
       <c r="F8">
-        <v>3.500600250070111</v>
+        <v>3.500275178861427</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1063170287658169</v>
+        <v>0.2568635966504935</v>
       </c>
       <c r="C9">
-        <v>2.290045569855232</v>
+        <v>1.810696804862654</v>
       </c>
       <c r="D9">
-        <v>9.722226614463244</v>
+        <v>5.367596856534075</v>
       </c>
       <c r="E9">
-        <v>3.118048526637013</v>
+        <v>2.316807470752388</v>
       </c>
       <c r="F9">
-        <v>3.152262477892468</v>
+        <v>2.362340041758294</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.458157375663734</v>
+        <v>-0.4680654340455334</v>
       </c>
       <c r="C10">
-        <v>2.282092575471136</v>
+        <v>1.381782322298316</v>
       </c>
       <c r="D10">
-        <v>8.777379630194348</v>
+        <v>2.829787416625887</v>
       </c>
       <c r="E10">
-        <v>2.962664279022237</v>
+        <v>1.682197199089895</v>
       </c>
       <c r="F10">
-        <v>2.961664880566207</v>
+        <v>1.681743345435759</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06186012078826768</v>
+        <v>-1.213277339139011</v>
       </c>
       <c r="C11">
-        <v>2.779572087388781</v>
+        <v>2.013103686783858</v>
       </c>
       <c r="D11">
-        <v>10.64187340981079</v>
+        <v>5.583994774231593</v>
       </c>
       <c r="E11">
-        <v>3.262188438734156</v>
+        <v>2.363047772312611</v>
       </c>
       <c r="F11">
-        <v>3.301137878033202</v>
+        <v>2.267143817825457</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
